--- a/biology/Botanique/Compsonema/Compsonema.xlsx
+++ b/biology/Botanique/Compsonema/Compsonema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compsonema est un genre d'algues brunes de la famille des Scytosiphonaceae selon AlgaeBase                                           (29 oct. 2012)[1], de celle des Myrionemataceae selon ITIS      (29 oct. 2012)[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compsonema est un genre d'algues brunes de la famille des Scytosiphonaceae selon AlgaeBase                                           (29 oct. 2012), de celle des Myrionemataceae selon ITIS      (29 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (29 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (29 oct. 2012) :
 Compsonema chordae Noda
 Compsonema coccophorae Noda
 Compsonema coniferum Setchell &amp; N.L.Gardner
@@ -535,7 +549,7 @@
 Compsonema sporangiiferum Setchell &amp; N.L.Gardner
 Compsonema tenue Setchell &amp; N.L.Gardner
 Compsonema wistariense Kraft
-Selon Catalogue of Life                                  (29 oct. 2012)[3] :
+Selon Catalogue of Life                                  (29 oct. 2012) :
 Compsonema chordae
 Compsonema coccophorae
 Compsonema coniferum
@@ -555,7 +569,7 @@
 Compsonema sessile
 Compsonema sporangiiferum
 Compsonema tenue
-Selon ITIS      (29 oct. 2012)[2] :
+Selon ITIS      (29 oct. 2012) :
 Compsonema coniferum
 Compsonema dubium
 Compsonema fasciculatum
@@ -569,9 +583,9 @@
 Compsonema serpens S. &amp; G.
 Compsonema sporangiferum
 Compsonema tenue
-Selon Paleobiology Database                   (29 oct. 2012)[4] :
+Selon Paleobiology Database                   (29 oct. 2012) :
 Compsonema fragile
-Selon World Register of Marine Species                               (29 oct. 2012)[5] :
+Selon World Register of Marine Species                               (29 oct. 2012) :
 Compsonema chordae Noda, 1973
 Compsonema coccophorae Noda, 1969
 Compsonema coniferum Setchell &amp; N.L.Gardner, 1922
